--- a/public/static/templates/商户旺店通模板.xlsx
+++ b/public/static/templates/商户旺店通模板.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>物流公司</t>
+    <t>快递单号</t>
   </si>
   <si>
-    <t>物流单号</t>
-  </si>
-  <si>
-    <t>实际重量</t>
+    <t>快递重量</t>
   </si>
 </sst>
 </file>
@@ -35,7 +32,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,10 +43,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -510,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,34 +524,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,98 +560,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,10 +664,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,27 +989,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="27.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
